--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BL4CKD4G3R\Documents\BaWork\BaWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A30AACC-7D01-42E8-A7B2-59C91BED703B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7FFE35-BD81-4B96-ADD5-9D29682BBDB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A288747C-E72E-479A-AF89-6A8FE9B9D87D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Column7</t>
   </si>
@@ -78,17 +78,38 @@
     <t>afspraak op 8/5 om 16:00 uur</t>
   </si>
   <si>
-    <t>14:000-c15:00</t>
+    <t>14:00-15:00</t>
+  </si>
+  <si>
+    <t>00:00 - 05:00</t>
+  </si>
+  <si>
+    <t>aanpassen van plan van aanpak V2</t>
+  </si>
+  <si>
+    <t>Sedric Lodonou</t>
+  </si>
+  <si>
+    <t>Verder Aanpassen van Aanpak Versie 2</t>
+  </si>
+  <si>
+    <t>19:00 - 21:01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -114,9 +135,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7507862-4D1F-4565-B4B3-362B04BEE18D}">
-  <dimension ref="A5:G9"/>
+  <dimension ref="A5:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,7 +549,42 @@
         <v>14</v>
       </c>
     </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BL4CKD4G3R\Documents\BaWork\BaWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7FFE35-BD81-4B96-ADD5-9D29682BBDB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D79E31C-70EB-4D96-A45C-45155E1E9578}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A288747C-E72E-479A-AF89-6A8FE9B9D87D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
   <si>
     <t>Column7</t>
   </si>
@@ -94,6 +94,24 @@
   </si>
   <si>
     <t>19:00 - 21:01</t>
+  </si>
+  <si>
+    <t>14/05/202</t>
+  </si>
+  <si>
+    <t>afwerken van  Plan van aanpak V2</t>
+  </si>
+  <si>
+    <t>13/05/202</t>
+  </si>
+  <si>
+    <t>vergadering : Auto-QoS initialiseren</t>
+  </si>
+  <si>
+    <t>afspraak op 14/5 om 16:00 uur</t>
+  </si>
+  <si>
+    <t>17:00-19:00</t>
   </si>
 </sst>
 </file>
@@ -157,8 +175,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{22BACC80-893D-45E1-ACA1-5EC441836566}" name="Table1" displayName="Table1" ref="A5:G48" totalsRowShown="0">
-  <autoFilter ref="A5:G48" xr:uid="{61EDB86E-7F42-4853-AE10-96098250EB34}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{22BACC80-893D-45E1-ACA1-5EC441836566}" name="Table1" displayName="Table1" ref="A5:G51" totalsRowShown="0">
+  <autoFilter ref="A5:G51" xr:uid="{61EDB86E-7F42-4853-AE10-96098250EB34}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{80BB9B57-7B26-4E9F-B69A-79A631F8B111}" name="Datum"/>
     <tableColumn id="2" xr3:uid="{AE6C7809-9152-4CF0-95DF-C892A2B4512A}" name="Tijd"/>
@@ -469,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7507862-4D1F-4565-B4B3-362B04BEE18D}">
-  <dimension ref="A5:G11"/>
+  <dimension ref="A5:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,6 +601,74 @@
         <v>19</v>
       </c>
     </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BL4CKD4G3R\Documents\BaWork\BaWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D79E31C-70EB-4D96-A45C-45155E1E9578}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894E34CE-D10B-4883-9EF3-852B6B649404}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A288747C-E72E-479A-AF89-6A8FE9B9D87D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
   <si>
     <t>Column7</t>
   </si>
@@ -112,6 +112,36 @@
   </si>
   <si>
     <t>17:00-19:00</t>
+  </si>
+  <si>
+    <t>00:00 - 03:00</t>
+  </si>
+  <si>
+    <t>aanpassen van Analyse van de Opdracht V</t>
+  </si>
+  <si>
+    <t>aanpassen analyse van de opdracht</t>
+  </si>
+  <si>
+    <t>aanpassen van rescearch en oplossingen</t>
+  </si>
+  <si>
+    <t>afwerken resaeach en oplossingen</t>
+  </si>
+  <si>
+    <t>verbeteren desgne van oplossing</t>
+  </si>
+  <si>
+    <t>16:00 - 17:00</t>
+  </si>
+  <si>
+    <t>feedback design van aanpak6 analyse opdracht</t>
+  </si>
+  <si>
+    <t>aanpassen research en ooplossingen</t>
+  </si>
+  <si>
+    <t>sedric, stefan</t>
   </si>
 </sst>
 </file>
@@ -175,8 +205,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{22BACC80-893D-45E1-ACA1-5EC441836566}" name="Table1" displayName="Table1" ref="A5:G51" totalsRowShown="0">
-  <autoFilter ref="A5:G51" xr:uid="{61EDB86E-7F42-4853-AE10-96098250EB34}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{22BACC80-893D-45E1-ACA1-5EC441836566}" name="Table1" displayName="Table1" ref="A5:G52" totalsRowShown="0">
+  <autoFilter ref="A5:G52" xr:uid="{61EDB86E-7F42-4853-AE10-96098250EB34}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{80BB9B57-7B26-4E9F-B69A-79A631F8B111}" name="Datum"/>
     <tableColumn id="2" xr3:uid="{AE6C7809-9152-4CF0-95DF-C892A2B4512A}" name="Tijd"/>
@@ -487,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7507862-4D1F-4565-B4B3-362B04BEE18D}">
-  <dimension ref="A5:G15"/>
+  <dimension ref="A5:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,6 +699,85 @@
         <v>18</v>
       </c>
     </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43970</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43972</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>43973</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BL4CKD4G3R\Documents\BaWork\BaWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894E34CE-D10B-4883-9EF3-852B6B649404}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87A43CF-0C6A-4F78-85E7-A7627BB46BB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A288747C-E72E-479A-AF89-6A8FE9B9D87D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
   <si>
     <t>Column7</t>
   </si>
@@ -138,10 +138,25 @@
     <t>feedback design van aanpak6 analyse opdracht</t>
   </si>
   <si>
-    <t>aanpassen research en ooplossingen</t>
-  </si>
-  <si>
     <t>sedric, stefan</t>
+  </si>
+  <si>
+    <t>afwerken ImplemetatieScript</t>
+  </si>
+  <si>
+    <t>aanbappasen ImplementatieScript</t>
+  </si>
+  <si>
+    <t>afwerken research en oplossingen</t>
+  </si>
+  <si>
+    <t>aanpassen research en oplossingen</t>
+  </si>
+  <si>
+    <t>aanpassen  ImplemetatieScript</t>
+  </si>
+  <si>
+    <t>meeting met Yvan</t>
   </si>
 </sst>
 </file>
@@ -517,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7507862-4D1F-4565-B4B3-362B04BEE18D}">
-  <dimension ref="A5:G20"/>
+  <dimension ref="A5:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,7 +756,7 @@
         <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -769,13 +784,64 @@
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E20" t="s">
         <v>18</v>
       </c>
       <c r="F20" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43974</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>43975</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BL4CKD4G3R\Documents\BaWork\BaWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87A43CF-0C6A-4F78-85E7-A7627BB46BB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78774924-FFFF-497C-AFA1-EC8138915874}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A288747C-E72E-479A-AF89-6A8FE9B9D87D}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11835" xr2:uid="{A288747C-E72E-479A-AF89-6A8FE9B9D87D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="44">
   <si>
     <t>Column7</t>
   </si>
@@ -157,6 +157,12 @@
   </si>
   <si>
     <t>meeting met Yvan</t>
+  </si>
+  <si>
+    <t>samenvoeging BachelerVerslag</t>
+  </si>
+  <si>
+    <t>meeting met Yvan + afwerking bachelorverslag</t>
   </si>
 </sst>
 </file>
@@ -532,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7507862-4D1F-4565-B4B3-362B04BEE18D}">
-  <dimension ref="A5:G23"/>
+  <dimension ref="A5:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,6 +850,23 @@
         <v>41</v>
       </c>
     </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
